--- a/DataSheets/COPYcore40Metadata.xlsx
+++ b/DataSheets/COPYcore40Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samnewall/Documents/MATLAB/nSRdist_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samnewall/Documents/MATLAB/nSRdist_code/DataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5BF8F-EA85-374F-9980-E3FC5A338650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89094B6-DD80-E84C-B36F-925C65BCDDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="6040" windowWidth="27640" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="4640" windowWidth="27640" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="820">
   <si>
     <t>A179-15</t>
   </si>
@@ -2493,6 +2493,9 @@
   </si>
   <si>
     <t>0.6, 0.68, 0.92, 1.12, 1.4</t>
+  </si>
+  <si>
+    <t>PF</t>
   </si>
 </sst>
 </file>
@@ -2868,10 +2871,10 @@
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O234" sqref="O234"/>
+      <selection pane="bottomRight" activeCell="H320" sqref="H320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3008,8 +3011,8 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>819</v>
       </c>
       <c r="J3" t="s">
         <v>654</v>
@@ -3326,8 +3329,8 @@
       <c r="G15">
         <v>11</v>
       </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="H15" t="s">
+        <v>819</v>
       </c>
       <c r="N15" t="s">
         <v>705</v>
@@ -3658,8 +3661,8 @@
       <c r="G28">
         <v>9</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>819</v>
       </c>
       <c r="J28" t="s">
         <v>654</v>
@@ -3791,8 +3794,8 @@
       <c r="G33">
         <v>16</v>
       </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="H33" t="s">
+        <v>819</v>
       </c>
       <c r="J33" t="s">
         <v>695</v>
@@ -3820,8 +3823,8 @@
       <c r="G34">
         <v>18</v>
       </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="H34" t="s">
+        <v>819</v>
       </c>
       <c r="J34" t="s">
         <v>695</v>
@@ -4062,8 +4065,8 @@
       <c r="G44">
         <v>14</v>
       </c>
-      <c r="H44">
-        <v>1</v>
+      <c r="H44" t="s">
+        <v>819</v>
       </c>
       <c r="N44" t="s">
         <v>746</v>
@@ -4100,8 +4103,8 @@
       <c r="G45">
         <v>13</v>
       </c>
-      <c r="H45">
-        <v>1</v>
+      <c r="H45" t="s">
+        <v>819</v>
       </c>
       <c r="J45" t="s">
         <v>695</v>
@@ -4132,8 +4135,8 @@
       <c r="G46">
         <v>12</v>
       </c>
-      <c r="H46">
-        <v>1</v>
+      <c r="H46" t="s">
+        <v>819</v>
       </c>
       <c r="J46" t="s">
         <v>654</v>
@@ -4173,8 +4176,8 @@
       <c r="G47">
         <v>15</v>
       </c>
-      <c r="H47">
-        <v>1</v>
+      <c r="H47" t="s">
+        <v>819</v>
       </c>
       <c r="J47" t="s">
         <v>695</v>
@@ -4312,8 +4315,8 @@
       <c r="G52">
         <v>15</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="s">
+        <v>819</v>
       </c>
       <c r="N52" t="s">
         <v>747</v>
@@ -4350,8 +4353,8 @@
       <c r="G53">
         <v>18</v>
       </c>
-      <c r="H53">
-        <v>1</v>
+      <c r="H53" t="s">
+        <v>819</v>
       </c>
       <c r="J53" t="s">
         <v>654</v>
@@ -4475,8 +4478,8 @@
       <c r="G57">
         <v>13</v>
       </c>
-      <c r="H57">
-        <v>1</v>
+      <c r="H57" t="s">
+        <v>819</v>
       </c>
       <c r="J57" t="s">
         <v>654</v>
@@ -4536,8 +4539,8 @@
       <c r="G59">
         <v>11</v>
       </c>
-      <c r="H59">
-        <v>1</v>
+      <c r="H59" t="s">
+        <v>819</v>
       </c>
       <c r="J59" t="s">
         <v>695</v>
@@ -4571,8 +4574,8 @@
       <c r="G60">
         <v>14</v>
       </c>
-      <c r="H60">
-        <v>1</v>
+      <c r="H60" t="s">
+        <v>819</v>
       </c>
       <c r="J60" t="s">
         <v>654</v>
@@ -4638,8 +4641,8 @@
       <c r="G62">
         <v>11</v>
       </c>
-      <c r="H62">
-        <v>1</v>
+      <c r="H62" t="s">
+        <v>819</v>
       </c>
       <c r="J62" t="s">
         <v>654</v>
@@ -4848,8 +4851,8 @@
       <c r="G70">
         <v>14</v>
       </c>
-      <c r="H70">
-        <v>1</v>
+      <c r="H70" t="s">
+        <v>819</v>
       </c>
       <c r="J70" t="s">
         <v>696</v>
@@ -4976,8 +4979,8 @@
       <c r="G74">
         <v>10</v>
       </c>
-      <c r="H74">
-        <v>1</v>
+      <c r="H74" t="s">
+        <v>819</v>
       </c>
       <c r="J74" t="s">
         <v>654</v>
@@ -5014,8 +5017,8 @@
       <c r="G75">
         <v>15</v>
       </c>
-      <c r="H75">
-        <v>1</v>
+      <c r="H75" t="s">
+        <v>819</v>
       </c>
       <c r="J75" t="s">
         <v>695</v>
@@ -5144,8 +5147,8 @@
       <c r="G80">
         <v>21</v>
       </c>
-      <c r="H80">
-        <v>1</v>
+      <c r="H80" t="s">
+        <v>819</v>
       </c>
       <c r="J80" t="s">
         <v>654</v>
@@ -5399,8 +5402,8 @@
       <c r="G89">
         <v>11</v>
       </c>
-      <c r="H89">
-        <v>1</v>
+      <c r="H89" t="s">
+        <v>819</v>
       </c>
       <c r="J89" t="s">
         <v>697</v>
@@ -5460,8 +5463,8 @@
       <c r="G91">
         <v>11</v>
       </c>
-      <c r="H91">
-        <v>1</v>
+      <c r="H91" t="s">
+        <v>819</v>
       </c>
       <c r="J91" t="s">
         <v>654</v>
@@ -5621,8 +5624,8 @@
       <c r="G97">
         <v>15</v>
       </c>
-      <c r="H97">
-        <v>1</v>
+      <c r="H97" t="s">
+        <v>819</v>
       </c>
       <c r="J97" t="s">
         <v>654</v>
@@ -5662,8 +5665,8 @@
       <c r="G98">
         <v>12</v>
       </c>
-      <c r="H98">
-        <v>1</v>
+      <c r="H98" t="s">
+        <v>819</v>
       </c>
       <c r="J98" t="s">
         <v>695</v>
@@ -5694,8 +5697,8 @@
       <c r="G99">
         <v>7</v>
       </c>
-      <c r="H99">
-        <v>1</v>
+      <c r="H99" t="s">
+        <v>819</v>
       </c>
       <c r="J99" t="s">
         <v>695</v>
@@ -5723,8 +5726,8 @@
       <c r="G100">
         <v>40</v>
       </c>
-      <c r="H100">
-        <v>1</v>
+      <c r="H100" t="s">
+        <v>819</v>
       </c>
       <c r="O100" t="s">
         <v>753</v>
@@ -5833,8 +5836,8 @@
       <c r="G104">
         <v>9</v>
       </c>
-      <c r="H104">
-        <v>1</v>
+      <c r="H104" t="s">
+        <v>819</v>
       </c>
       <c r="J104" t="s">
         <v>699</v>
@@ -5891,8 +5894,8 @@
       <c r="G106">
         <v>11</v>
       </c>
-      <c r="H106">
-        <v>1</v>
+      <c r="H106" t="s">
+        <v>819</v>
       </c>
       <c r="R106">
         <v>1</v>
@@ -5955,8 +5958,8 @@
       <c r="G108">
         <v>10</v>
       </c>
-      <c r="H108">
-        <v>1</v>
+      <c r="H108" t="s">
+        <v>819</v>
       </c>
       <c r="N108" t="s">
         <v>816</v>
@@ -5993,8 +5996,8 @@
       <c r="G109">
         <v>14</v>
       </c>
-      <c r="H109">
-        <v>1</v>
+      <c r="H109" t="s">
+        <v>819</v>
       </c>
       <c r="J109" t="s">
         <v>695</v>
@@ -6195,8 +6198,8 @@
       <c r="G117">
         <v>14</v>
       </c>
-      <c r="H117">
-        <v>1</v>
+      <c r="H117" t="s">
+        <v>819</v>
       </c>
       <c r="J117" t="s">
         <v>699</v>
@@ -6256,8 +6259,8 @@
       <c r="G119">
         <v>9</v>
       </c>
-      <c r="H119">
-        <v>1</v>
+      <c r="H119" t="s">
+        <v>819</v>
       </c>
       <c r="J119" t="s">
         <v>699</v>
@@ -6504,8 +6507,8 @@
       <c r="G129">
         <v>11</v>
       </c>
-      <c r="H129">
-        <v>1</v>
+      <c r="H129" t="s">
+        <v>819</v>
       </c>
       <c r="J129" t="s">
         <v>699</v>
@@ -6775,8 +6778,8 @@
       <c r="G140">
         <v>11</v>
       </c>
-      <c r="H140">
-        <v>1</v>
+      <c r="H140" t="s">
+        <v>819</v>
       </c>
       <c r="J140" t="s">
         <v>699</v>
@@ -6862,8 +6865,8 @@
       <c r="G143">
         <v>19</v>
       </c>
-      <c r="H143">
-        <v>1</v>
+      <c r="H143" t="s">
+        <v>819</v>
       </c>
       <c r="J143" t="s">
         <v>699</v>
@@ -7018,8 +7021,8 @@
       <c r="G149">
         <v>13</v>
       </c>
-      <c r="H149">
-        <v>1</v>
+      <c r="H149" t="s">
+        <v>819</v>
       </c>
       <c r="J149" t="s">
         <v>654</v>
@@ -7059,8 +7062,8 @@
       <c r="G150">
         <v>15</v>
       </c>
-      <c r="H150">
-        <v>1</v>
+      <c r="H150" t="s">
+        <v>819</v>
       </c>
       <c r="J150" t="s">
         <v>661</v>
@@ -7117,8 +7120,8 @@
       <c r="G152">
         <v>17</v>
       </c>
-      <c r="H152">
-        <v>1</v>
+      <c r="H152" t="s">
+        <v>819</v>
       </c>
       <c r="J152" t="s">
         <v>661</v>
@@ -7195,8 +7198,8 @@
       <c r="G155">
         <v>51</v>
       </c>
-      <c r="H155">
-        <v>1</v>
+      <c r="H155" t="s">
+        <v>819</v>
       </c>
       <c r="J155" t="s">
         <v>654</v>
@@ -7576,8 +7579,8 @@
       <c r="G170">
         <v>12</v>
       </c>
-      <c r="H170">
-        <v>1</v>
+      <c r="H170" t="s">
+        <v>819</v>
       </c>
       <c r="N170" t="s">
         <v>710</v>
@@ -7715,8 +7718,8 @@
       <c r="G175">
         <v>15</v>
       </c>
-      <c r="H175">
-        <v>1</v>
+      <c r="H175" t="s">
+        <v>819</v>
       </c>
       <c r="J175" t="s">
         <v>712</v>
@@ -7848,8 +7851,8 @@
       <c r="G180">
         <v>33</v>
       </c>
-      <c r="H180">
-        <v>1</v>
+      <c r="H180" t="s">
+        <v>819</v>
       </c>
       <c r="J180" t="s">
         <v>758</v>
@@ -8010,8 +8013,8 @@
       <c r="G186">
         <v>9</v>
       </c>
-      <c r="H186">
-        <v>1</v>
+      <c r="H186" t="s">
+        <v>819</v>
       </c>
       <c r="J186" t="s">
         <v>699</v>
@@ -8160,8 +8163,8 @@
       <c r="G192">
         <v>26</v>
       </c>
-      <c r="H192">
-        <v>1</v>
+      <c r="H192" t="s">
+        <v>819</v>
       </c>
       <c r="J192" t="s">
         <v>696</v>
@@ -8201,8 +8204,8 @@
       <c r="G193">
         <v>10</v>
       </c>
-      <c r="H193">
-        <v>1</v>
+      <c r="H193" t="s">
+        <v>819</v>
       </c>
       <c r="N193" t="s">
         <v>814</v>
@@ -8268,8 +8271,8 @@
       <c r="G195">
         <v>10</v>
       </c>
-      <c r="H195">
-        <v>1</v>
+      <c r="H195" t="s">
+        <v>819</v>
       </c>
       <c r="J195" t="s">
         <v>654</v>
@@ -8306,8 +8309,8 @@
       <c r="G196">
         <v>10</v>
       </c>
-      <c r="H196">
-        <v>1</v>
+      <c r="H196" t="s">
+        <v>819</v>
       </c>
       <c r="J196" t="s">
         <v>695</v>
@@ -8338,8 +8341,8 @@
       <c r="G197">
         <v>12</v>
       </c>
-      <c r="H197">
-        <v>1</v>
+      <c r="H197" t="s">
+        <v>819</v>
       </c>
       <c r="J197" t="s">
         <v>654</v>
@@ -8379,8 +8382,8 @@
       <c r="G198">
         <v>21</v>
       </c>
-      <c r="H198">
-        <v>1</v>
+      <c r="H198" t="s">
+        <v>819</v>
       </c>
       <c r="J198" t="s">
         <v>654</v>
@@ -8411,8 +8414,8 @@
       <c r="G199">
         <v>9</v>
       </c>
-      <c r="H199">
-        <v>1</v>
+      <c r="H199" t="s">
+        <v>819</v>
       </c>
       <c r="J199" t="s">
         <v>796</v>
@@ -8472,8 +8475,8 @@
       <c r="G201">
         <v>42</v>
       </c>
-      <c r="H201">
-        <v>1</v>
+      <c r="H201" t="s">
+        <v>819</v>
       </c>
       <c r="J201" t="s">
         <v>654</v>
@@ -8516,8 +8519,8 @@
       <c r="G202">
         <v>9</v>
       </c>
-      <c r="H202">
-        <v>1</v>
+      <c r="H202" t="s">
+        <v>819</v>
       </c>
       <c r="J202" t="s">
         <v>792</v>
@@ -8560,8 +8563,8 @@
       <c r="G203">
         <v>11</v>
       </c>
-      <c r="H203">
-        <v>1</v>
+      <c r="H203" t="s">
+        <v>819</v>
       </c>
       <c r="N203" t="s">
         <v>724</v>
@@ -8598,8 +8601,8 @@
       <c r="G204">
         <v>21</v>
       </c>
-      <c r="H204">
-        <v>1</v>
+      <c r="H204" t="s">
+        <v>819</v>
       </c>
       <c r="J204" t="s">
         <v>695</v>
@@ -8639,8 +8642,8 @@
       <c r="G205">
         <v>41</v>
       </c>
-      <c r="H205">
-        <v>1</v>
+      <c r="H205" t="s">
+        <v>819</v>
       </c>
       <c r="J205" t="s">
         <v>696</v>
@@ -8677,8 +8680,8 @@
       <c r="G206">
         <v>14</v>
       </c>
-      <c r="H206">
-        <v>1</v>
+      <c r="H206" t="s">
+        <v>819</v>
       </c>
       <c r="I206" t="s">
         <v>764</v>
@@ -8744,8 +8747,8 @@
       <c r="G208">
         <v>32</v>
       </c>
-      <c r="H208">
-        <v>1</v>
+      <c r="H208" t="s">
+        <v>819</v>
       </c>
       <c r="N208" t="s">
         <v>729</v>
@@ -8782,8 +8785,8 @@
       <c r="G209">
         <v>13</v>
       </c>
-      <c r="H209">
-        <v>1</v>
+      <c r="H209" t="s">
+        <v>819</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>730</v>
@@ -8846,8 +8849,8 @@
       <c r="G211">
         <v>19</v>
       </c>
-      <c r="H211">
-        <v>1</v>
+      <c r="H211" t="s">
+        <v>819</v>
       </c>
       <c r="R211">
         <v>1</v>
@@ -8881,8 +8884,8 @@
       <c r="G212">
         <v>19</v>
       </c>
-      <c r="H212">
-        <v>1</v>
+      <c r="H212" t="s">
+        <v>819</v>
       </c>
       <c r="I212" t="s">
         <v>704</v>
@@ -8919,8 +8922,8 @@
       <c r="G213">
         <v>9</v>
       </c>
-      <c r="H213">
-        <v>1</v>
+      <c r="H213" t="s">
+        <v>819</v>
       </c>
       <c r="J213" t="s">
         <v>699</v>
@@ -8951,8 +8954,8 @@
       <c r="G214">
         <v>16</v>
       </c>
-      <c r="H214">
-        <v>1</v>
+      <c r="H214" t="s">
+        <v>819</v>
       </c>
       <c r="J214" t="s">
         <v>699</v>
@@ -8983,8 +8986,8 @@
       <c r="G215">
         <v>7</v>
       </c>
-      <c r="H215">
-        <v>1</v>
+      <c r="H215" t="s">
+        <v>819</v>
       </c>
       <c r="J215" t="s">
         <v>654</v>
@@ -9015,8 +9018,8 @@
       <c r="G216">
         <v>9</v>
       </c>
-      <c r="H216">
-        <v>1</v>
+      <c r="H216" t="s">
+        <v>819</v>
       </c>
       <c r="J216" t="s">
         <v>654</v>
@@ -9056,8 +9059,8 @@
       <c r="G217">
         <v>8</v>
       </c>
-      <c r="H217">
-        <v>1</v>
+      <c r="H217" t="s">
+        <v>819</v>
       </c>
       <c r="J217" t="s">
         <v>654</v>
@@ -9126,8 +9129,8 @@
       <c r="G219">
         <v>17</v>
       </c>
-      <c r="H219">
-        <v>1</v>
+      <c r="H219" t="s">
+        <v>819</v>
       </c>
       <c r="R219">
         <v>1</v>
@@ -9257,8 +9260,8 @@
       <c r="G223">
         <v>21</v>
       </c>
-      <c r="H223">
-        <v>1</v>
+      <c r="H223" t="s">
+        <v>819</v>
       </c>
       <c r="O223">
         <v>13.24</v>
@@ -9350,8 +9353,8 @@
       <c r="G226">
         <v>12</v>
       </c>
-      <c r="H226">
-        <v>1</v>
+      <c r="H226" t="s">
+        <v>819</v>
       </c>
       <c r="R226">
         <v>1</v>
@@ -9408,8 +9411,8 @@
       <c r="G228">
         <v>10</v>
       </c>
-      <c r="H228">
-        <v>1</v>
+      <c r="H228" t="s">
+        <v>819</v>
       </c>
       <c r="I228" t="s">
         <v>695</v>
@@ -9585,8 +9588,8 @@
       <c r="G234">
         <v>9</v>
       </c>
-      <c r="H234">
-        <v>1</v>
+      <c r="H234" t="s">
+        <v>819</v>
       </c>
       <c r="J234" t="s">
         <v>741</v>
@@ -9686,8 +9689,8 @@
       <c r="G238">
         <v>9</v>
       </c>
-      <c r="H238">
-        <v>1</v>
+      <c r="H238" t="s">
+        <v>819</v>
       </c>
       <c r="J238" t="s">
         <v>654</v>
@@ -9854,8 +9857,8 @@
       <c r="G244">
         <v>9</v>
       </c>
-      <c r="H244">
-        <v>1</v>
+      <c r="H244" t="s">
+        <v>819</v>
       </c>
       <c r="J244" t="s">
         <v>699</v>
@@ -9909,8 +9912,8 @@
       <c r="G246">
         <v>13</v>
       </c>
-      <c r="H246">
-        <v>1</v>
+      <c r="H246" t="s">
+        <v>819</v>
       </c>
       <c r="J246" t="s">
         <v>654</v>
@@ -10028,8 +10031,8 @@
       <c r="G250">
         <v>11</v>
       </c>
-      <c r="H250">
-        <v>1</v>
+      <c r="H250" t="s">
+        <v>819</v>
       </c>
       <c r="J250" t="s">
         <v>741</v>
@@ -10126,8 +10129,8 @@
       <c r="G254">
         <v>11</v>
       </c>
-      <c r="H254">
-        <v>1</v>
+      <c r="H254" t="s">
+        <v>819</v>
       </c>
       <c r="J254" t="s">
         <v>654</v>
@@ -10190,8 +10193,8 @@
       <c r="G256">
         <v>9</v>
       </c>
-      <c r="H256">
-        <v>1</v>
+      <c r="H256" t="s">
+        <v>819</v>
       </c>
       <c r="J256" t="s">
         <v>695</v>
@@ -10504,8 +10507,8 @@
       <c r="G269">
         <v>40</v>
       </c>
-      <c r="H269">
-        <v>1</v>
+      <c r="H269" t="s">
+        <v>819</v>
       </c>
       <c r="J269" t="s">
         <v>654</v>
@@ -10663,8 +10666,8 @@
       <c r="G275">
         <v>9</v>
       </c>
-      <c r="H275">
-        <v>1</v>
+      <c r="H275" t="s">
+        <v>819</v>
       </c>
       <c r="J275" t="s">
         <v>695</v>
@@ -10816,8 +10819,8 @@
       <c r="G281">
         <v>14</v>
       </c>
-      <c r="H281">
-        <v>1</v>
+      <c r="H281" t="s">
+        <v>819</v>
       </c>
       <c r="J281" t="s">
         <v>695</v>
@@ -10972,8 +10975,8 @@
       <c r="G287">
         <v>13</v>
       </c>
-      <c r="H287">
-        <v>1</v>
+      <c r="H287" t="s">
+        <v>819</v>
       </c>
       <c r="J287" t="s">
         <v>654</v>
@@ -11068,8 +11071,8 @@
       <c r="G290">
         <v>29</v>
       </c>
-      <c r="H290">
-        <v>1</v>
+      <c r="H290" t="s">
+        <v>819</v>
       </c>
       <c r="J290" t="s">
         <v>654</v>
@@ -11112,8 +11115,8 @@
       <c r="G291">
         <v>7</v>
       </c>
-      <c r="H291">
-        <v>1</v>
+      <c r="H291" t="s">
+        <v>819</v>
       </c>
       <c r="J291" t="s">
         <v>695</v>
@@ -11305,8 +11308,8 @@
       <c r="G299">
         <v>11</v>
       </c>
-      <c r="H299">
-        <v>1</v>
+      <c r="H299" t="s">
+        <v>819</v>
       </c>
       <c r="J299" t="s">
         <v>699</v>
@@ -11415,8 +11418,8 @@
       <c r="G303">
         <v>8</v>
       </c>
-      <c r="H303">
-        <v>1</v>
+      <c r="H303" t="s">
+        <v>819</v>
       </c>
       <c r="J303" t="s">
         <v>654</v>
@@ -11453,8 +11456,8 @@
       <c r="G304">
         <v>10</v>
       </c>
-      <c r="H304">
-        <v>1</v>
+      <c r="H304" t="s">
+        <v>819</v>
       </c>
       <c r="J304" t="s">
         <v>695</v>
@@ -11845,8 +11848,8 @@
       <c r="G320">
         <v>10</v>
       </c>
-      <c r="H320">
-        <v>1</v>
+      <c r="H320" t="s">
+        <v>819</v>
       </c>
       <c r="J320" t="s">
         <v>741</v>
